--- a/test/data/test-siemens-sheet.xlsx
+++ b/test/data/test-siemens-sheet.xlsx
@@ -77,7 +77,7 @@
     </r>
   </si>
   <si>
-    <t>FLOAT</t>
+    <t>FLOAT32</t>
   </si>
   <si>
     <t>DCBA</t>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1533,7 +1533,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="4.325" customWidth="1"/>
     <col min="3" max="3" width="23.05" customWidth="1"/>
-    <col min="4" max="4" width="6.64166666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="6.33333333333333" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
